--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CD4 Percentage Observation</t>
+    <t>CD4 Percentage</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:52:45+00:00</t>
+    <t>2023-02-27T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is for recording the patient's CD4 percentage</t>
+    <t>This profile is for recording the patient's CD4 percentage.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1333,7 +1333,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation)
 </t>
   </si>
   <si>
@@ -4469,10 +4469,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>

--- a/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-percentage.xlsx
+++ b/branches/CD4_Resource_dev-FIG54/StructureDefinition-hiv-cd4-percentage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:08:58+00:00</t>
+    <t>2023-02-27T08:14:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
